--- a/src/services/excel/templates/import-student-template.xlsx
+++ b/src/services/excel/templates/import-student-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\SchoolMedix_BE\src\services\excel\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F484A1A2-52AB-4574-AF65-661064A76B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE30870-E2E0-452C-BA97-94A1A29872CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hướng dẫn sử dụng" sheetId="6" r:id="rId1"/>
@@ -10074,8 +10074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121B299F-A75C-4153-A56C-EF2453E7DC84}">
   <dimension ref="A1:J478"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14923,7 +14923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C9B8E4-F464-400D-B27E-AC86F9FD02AF}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
